--- a/Documents/PhieuDanhGia-DACK-Ads-NhomX.xlsx
+++ b/Documents/PhieuDanhGia-DACK-Ads-NhomX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducti\AppData\Local\Temp\MicrosoftEdgeDownloads\68dd954d-da47-44d2-ac06-008c22e3c609\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\AbsManagement\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB463DF-AA67-4DEB-80C6-B3A04C14B5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4499F0D-04F9-4844-9C0B-20411F185897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>ĐỒ ÁN CUỐI KỲ - HỆ THỐNG ADS MANAGEMENT</t>
   </si>
@@ -299,30 +299,6 @@
   </si>
   <si>
     <t>API Validation</t>
-  </si>
-  <si>
-    <t>Đã có</t>
-  </si>
-  <si>
-    <t>Chưa</t>
-  </si>
-  <si>
-    <t>Có</t>
-  </si>
-  <si>
-    <t>Chưa dùng</t>
-  </si>
-  <si>
-    <t>Chưa làm</t>
-  </si>
-  <si>
-    <t>Cần bổ sung</t>
-  </si>
-  <si>
-    <t>Chưa có</t>
-  </si>
-  <si>
-    <t>Bị lỗi</t>
   </si>
 </sst>
 </file>
@@ -406,7 +382,7 @@
       <name val="Open Sans"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +411,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -506,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -613,6 +595,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,7 +605,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -854,12 +857,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1074,12 +1077,12 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1104,12 +1107,12 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1232,9 +1235,7 @@
         <v>-5</v>
       </c>
       <c r="D14" s="23"/>
-      <c r="E14" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1296,9 +1297,7 @@
         <v>-4</v>
       </c>
       <c r="D16" s="26"/>
-      <c r="E16" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1329,10 +1328,10 @@
       <c r="C17" s="22">
         <v>-0.5</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="D17" s="23">
+        <v>-0.5</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1364,9 +1363,7 @@
         <v>-0.5</v>
       </c>
       <c r="D18" s="23"/>
-      <c r="E18" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1398,9 +1395,7 @@
         <v>-0.5</v>
       </c>
       <c r="D19" s="23"/>
-      <c r="E19" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1432,9 +1427,7 @@
         <v>-0.5</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1466,9 +1459,7 @@
         <v>-0.5</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1500,9 +1491,7 @@
         <v>-1</v>
       </c>
       <c r="D22" s="23"/>
-      <c r="E22" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1534,9 +1523,7 @@
         <v>-1</v>
       </c>
       <c r="D23" s="26"/>
-      <c r="E23" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1568,9 +1555,7 @@
         <v>-1</v>
       </c>
       <c r="D24" s="26"/>
-      <c r="E24" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1602,9 +1587,7 @@
         <v>-2</v>
       </c>
       <c r="D25" s="26"/>
-      <c r="E25" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1636,9 +1619,7 @@
         <v>-0.5</v>
       </c>
       <c r="D26" s="26"/>
-      <c r="E26" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1670,9 +1651,7 @@
         <v>-0.5</v>
       </c>
       <c r="D27" s="26"/>
-      <c r="E27" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1704,9 +1683,7 @@
         <v>-0.5</v>
       </c>
       <c r="D28" s="26"/>
-      <c r="E28" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1738,9 +1715,7 @@
         <v>-1</v>
       </c>
       <c r="D29" s="26"/>
-      <c r="E29" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1772,9 +1747,7 @@
         <v>-0.5</v>
       </c>
       <c r="D30" s="26"/>
-      <c r="E30" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1806,9 +1779,7 @@
         <v>-0.5</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1840,9 +1811,7 @@
         <v>-0.5</v>
       </c>
       <c r="D32" s="28"/>
-      <c r="E32" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1874,9 +1843,7 @@
         <v>-0.5</v>
       </c>
       <c r="D33" s="28"/>
-      <c r="E33" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -1966,9 +1933,7 @@
         <v>-0.5</v>
       </c>
       <c r="D36" s="26"/>
-      <c r="E36" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2000,9 +1965,7 @@
         <v>-0.5</v>
       </c>
       <c r="D37" s="23"/>
-      <c r="E37" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -2034,9 +1997,7 @@
         <v>-0.5</v>
       </c>
       <c r="D38" s="23"/>
-      <c r="E38" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2068,9 +2029,7 @@
         <v>-1</v>
       </c>
       <c r="D39" s="23"/>
-      <c r="E39" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2102,9 +2061,7 @@
         <v>-1</v>
       </c>
       <c r="D40" s="23"/>
-      <c r="E40" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2136,9 +2093,7 @@
         <v>-0.5</v>
       </c>
       <c r="D41" s="23"/>
-      <c r="E41" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -2170,9 +2125,7 @@
         <v>-1</v>
       </c>
       <c r="D42" s="23"/>
-      <c r="E42" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2204,9 +2157,7 @@
         <v>-1</v>
       </c>
       <c r="D43" s="23"/>
-      <c r="E43" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2238,9 +2189,7 @@
         <v>-0.5</v>
       </c>
       <c r="D44" s="23"/>
-      <c r="E44" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -2272,9 +2221,7 @@
         <v>-0.5</v>
       </c>
       <c r="D45" s="23"/>
-      <c r="E45" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -2298,17 +2245,15 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="22">
+      <c r="B46" s="40"/>
+      <c r="C46" s="41">
         <v>-1</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -2335,16 +2280,13 @@
       <c r="A47" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="6"/>
       <c r="C47" s="22">
         <v>-1</v>
       </c>
       <c r="D47" s="23"/>
-      <c r="E47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -2374,11 +2316,9 @@
         <v>-0.5</v>
       </c>
       <c r="D48" s="23"/>
-      <c r="E48" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2400,19 +2340,17 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15">
+      <c r="B49" s="44"/>
+      <c r="C49" s="45">
         <v>-0.5</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -2499,10 +2437,10 @@
       <c r="C52" s="27">
         <v>-0.5</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="D52" s="26">
+        <v>-0.5</v>
+      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -2534,9 +2472,7 @@
         <v>-0.5</v>
       </c>
       <c r="D53" s="23"/>
-      <c r="E53" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -2568,9 +2504,7 @@
         <v>-0.5</v>
       </c>
       <c r="D54" s="23"/>
-      <c r="E54" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2602,9 +2536,7 @@
         <v>-0.5</v>
       </c>
       <c r="D55" s="23"/>
-      <c r="E55" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2636,9 +2568,7 @@
         <v>-0.5</v>
       </c>
       <c r="D56" s="23"/>
-      <c r="E56" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -2662,19 +2592,17 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="27">
+      <c r="B57" s="40"/>
+      <c r="C57" s="46">
         <v>-0.5</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -2696,19 +2624,17 @@
       <c r="Z57" s="4"/>
     </row>
     <row r="58" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="27">
+      <c r="B58" s="40"/>
+      <c r="C58" s="46">
         <v>-0.5</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -2730,19 +2656,17 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="27">
+      <c r="B59" s="40"/>
+      <c r="C59" s="46">
         <v>-0.5</v>
       </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2771,12 +2695,12 @@
       <c r="C60" s="27">
         <v>-0.5</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
+      <c r="D60" s="23">
+        <v>-0.5</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -2806,11 +2730,9 @@
         <v>-0.5</v>
       </c>
       <c r="D61" s="23"/>
-      <c r="E61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -2840,9 +2762,7 @@
         <v>-0.5</v>
       </c>
       <c r="D62" s="23"/>
-      <c r="E62" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -2930,9 +2850,7 @@
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
       <c r="D65" s="16"/>
-      <c r="E65" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -2964,9 +2882,7 @@
         <v>-2</v>
       </c>
       <c r="D66" s="26"/>
-      <c r="E66" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -2998,9 +2914,7 @@
         <v>-1</v>
       </c>
       <c r="D67" s="26"/>
-      <c r="E67" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -3032,9 +2946,7 @@
         <v>-4</v>
       </c>
       <c r="D68" s="26"/>
-      <c r="E68" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -3066,9 +2978,7 @@
         <v>-1</v>
       </c>
       <c r="D69" s="26"/>
-      <c r="E69" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -3100,9 +3010,7 @@
         <v>-1</v>
       </c>
       <c r="D70" s="26"/>
-      <c r="E70" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -3134,9 +3042,7 @@
         <v>-1</v>
       </c>
       <c r="D71" s="26"/>
-      <c r="E71" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -3168,9 +3074,7 @@
         <v>-0.5</v>
       </c>
       <c r="D72" s="26"/>
-      <c r="E72" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -3202,9 +3106,7 @@
         <v>-1</v>
       </c>
       <c r="D73" s="26"/>
-      <c r="E73" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -3326,9 +3228,7 @@
         <v>-1.5</v>
       </c>
       <c r="D77" s="26"/>
-      <c r="E77" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -3360,9 +3260,7 @@
         <v>-1</v>
       </c>
       <c r="D78" s="23"/>
-      <c r="E78" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -3394,9 +3292,7 @@
         <v>-2</v>
       </c>
       <c r="D79" s="26"/>
-      <c r="E79" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -3428,9 +3324,7 @@
         <v>-0.5</v>
       </c>
       <c r="D80" s="23"/>
-      <c r="E80" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -3462,9 +3356,7 @@
         <v>-0.5</v>
       </c>
       <c r="D81" s="23"/>
-      <c r="E81" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -3496,9 +3388,7 @@
         <v>-2</v>
       </c>
       <c r="D82" s="26"/>
-      <c r="E82" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
